--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -193,9 +193,6 @@
 </t>
   </si>
   <si>
-    <t>rpalat4a</t>
-  </si>
-  <si>
     <t>APPKEY483002020100522572634095145</t>
   </si>
   <si>
@@ -277,12 +274,6 @@
     <t>OwnerWorkGroupAllTickets</t>
   </si>
   <si>
-    <t>http://ticketing-api-env2/ServiceAssurance/v3/Trouble/ticketHeader</t>
-  </si>
-  <si>
-    <t>http://ticketing-api-env2/ServiceAssurance/v3/Trouble/ticket/</t>
-  </si>
-  <si>
     <t>DispatchTicket</t>
   </si>
   <si>
@@ -295,9 +286,6 @@
     <t>Dispatch</t>
   </si>
   <si>
-    <t>to Queue LATAM - TSC - Brasil.</t>
-  </si>
-  <si>
     <t>Reports</t>
   </si>
   <si>
@@ -343,7 +331,76 @@
     <t>ActionEscalationTicket</t>
   </si>
   <si>
-    <t>PatternDispatchTicket</t>
+    <t>WorkGroupDispatchTicket</t>
+  </si>
+  <si>
+    <t>OwnerTicket</t>
+  </si>
+  <si>
+    <t>EndPointOwnerTicket</t>
+  </si>
+  <si>
+    <t>AllTickets</t>
+  </si>
+  <si>
+    <t>OwnerWorkGroupOwnerTicket</t>
+  </si>
+  <si>
+    <t>rpalat5b</t>
+  </si>
+  <si>
+    <t>ARSMTPRelay.lat.gblxint.com</t>
+  </si>
+  <si>
+    <t>SMTP</t>
+  </si>
+  <si>
+    <t>centurylink.com</t>
+  </si>
+  <si>
+    <t>rpalat5b@centurylink.com</t>
+  </si>
+  <si>
+    <t>silvio.degodoi@lumen.com</t>
+  </si>
+  <si>
+    <t>Test01</t>
+  </si>
+  <si>
+    <t>SMTPRelaySMTP</t>
+  </si>
+  <si>
+    <t>PortTCPSMTP</t>
+  </si>
+  <si>
+    <t>SourceDomainSMTP</t>
+  </si>
+  <si>
+    <t>EmailToBRASMTP</t>
+  </si>
+  <si>
+    <t>EmailFromSMTP</t>
+  </si>
+  <si>
+    <t>MessageSubjectSMTP</t>
+  </si>
+  <si>
+    <t>MessageBodyBRASMTP</t>
+  </si>
+  <si>
+    <t>ChgStatusTicket</t>
+  </si>
+  <si>
+    <t>Chg Status</t>
+  </si>
+  <si>
+    <t>Yanked</t>
+  </si>
+  <si>
+    <t>http://ticketing-api-env4/ServiceAssurance/v3/Trouble/ticketHeader</t>
+  </si>
+  <si>
+    <t>http://ticketing-api-env4/ServiceAssurance/v3/Trouble/ticket/</t>
   </si>
 </sst>
 </file>
@@ -731,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1033"/>
+  <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -784,7 +841,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>44</v>
@@ -795,7 +852,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>46</v>
@@ -806,7 +863,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>48</v>
@@ -817,7 +874,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>52</v>
@@ -828,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>51</v>
@@ -836,376 +893,459 @@
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5">
         <v>1602166468</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="5">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="2:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2155,22 +2295,22 @@
     <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B12" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId1" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticketHeader"/>
+    <hyperlink ref="B21" r:id="rId2" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticket/"/>
+    <hyperlink ref="B12" r:id="rId3" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticketHeader"/>
+    <hyperlink ref="B22" r:id="rId4" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticket/"/>
     <hyperlink ref="B25" r:id="rId5"/>
-    <hyperlink ref="B26" r:id="rId6"/>
-    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="B26" r:id="rId6" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticket/"/>
+    <hyperlink ref="B30" r:id="rId7" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticket/"/>
+    <hyperlink ref="B32" r:id="rId8" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticketHeader"/>
+    <hyperlink ref="B38" r:id="rId9"/>
+    <hyperlink ref="B37" r:id="rId10"/>
+    <hyperlink ref="B41" r:id="rId11" display="http://ticketing-api.level3.com/ServiceAssurance/v3/Trouble/ticket/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -4659,18 +4799,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4693,14 +4833,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2970EE48-DB6F-45D6-B55A-943E88D40419}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07511680-966A-426D-B26A-511E8573736C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4715,4 +4847,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2970EE48-DB6F-45D6-B55A-943E88D40419}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>